--- a/webroot/エクセル原本/test_x.xlsx
+++ b/webroot/エクセル原本/test_x.xlsx
@@ -1,17 +1,520 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20364"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CakePHPapp\webroot\エクセル原本\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EDDD12-A819-4CA4-AA83-8A7C57555B39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="999999"/>
+</workbook>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -21,8 +524,8 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -32,8 +535,8 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -110,8 +613,10 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="F1:G6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
